--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_4.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>CIN5</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -107,13 +104,16 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Sigmoid</t>
   </si>
   <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -616,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -778,10 +778,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1148,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
@@ -1156,7 +1156,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -1445,7 +1445,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1567,7 +1567,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1688,27 +1688,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +1704,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1724,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1732,7 +1720,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1728,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1748,7 +1736,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1756,99 +1744,96 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1934,10 +1919,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_4.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>CIN5</t>
   </si>
@@ -62,22 +67,10 @@
     <t>AFT2</t>
   </si>
   <si>
-    <t>Strain</t>
-  </si>
-  <si>
-    <t>wt</t>
-  </si>
-  <si>
     <t>fix_P</t>
   </si>
   <si>
     <t>fix_b</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>dcin5</t>
   </si>
   <si>
     <t>estimate_params</t>
@@ -119,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -172,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -180,7 +173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -200,7 +192,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,6 +267,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -601,31 +596,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -634,7 +629,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -643,7 +638,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -653,7 +648,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -663,94 +658,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -762,29 +757,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -792,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -800,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -808,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -816,71 +811,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -893,246 +888,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1.2</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>1.2</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1145,266 +1140,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1.2</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1.2</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -1416,36 +1411,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1460,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1477,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1494,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1537,37 +1532,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.05859375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.46875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1599,71 +1595,71 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>0.48047539785436383</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>0.24698695208080076</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
         <v>0.69471696172208153</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>0.62986593530329382</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
-        <v>-0.97501548493167278</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>-0.975015484931673</v>
+      </c>
+      <c r="E5" s="22">
         <v>0.95357730547457265</v>
       </c>
     </row>
@@ -1676,19 +1672,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1704,7 +1700,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1712,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1720,7 +1716,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +1724,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1736,7 +1732,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1744,59 +1740,59 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.4</v>
       </c>
       <c r="C14">
@@ -1809,93 +1805,71 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D15">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E15">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F15">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G15">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H15">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I15">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J15">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K15">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N15">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O15">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P15">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q15">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R15">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S15">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T15">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U15">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V15">
         <v>2</v>
       </c>
     </row>
@@ -1908,24 +1882,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1933,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1941,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1957,10 +1931,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_4.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -944,40 +944,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -985,40 +985,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1026,40 +1026,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="10">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="11">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1067,40 +1067,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1196,40 +1196,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1237,40 +1237,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1319,40 +1319,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22">
-        <v>0.48047539785436383</v>
+        <v>0.48</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <v>0.24698695208080076</v>
+        <v>0.247</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>0.69471696172208153</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="E4" s="22">
-        <v>0.62986593530329382</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>-0.975015484931673</v>
+        <v>-0.97499999999999998</v>
       </c>
       <c r="E5" s="22">
-        <v>0.95357730547457265</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1819,7 @@
         <v>0.2</v>
       </c>
       <c r="E15">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F15">
         <v>0.4</v>
@@ -1828,10 +1828,10 @@
         <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I15">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J15">
         <v>0.8</v>
@@ -1846,13 +1846,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N15">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O15">
         <v>1.3</v>
       </c>
       <c r="P15">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q15">
         <v>1.5</v>
@@ -1861,13 +1861,13 @@
         <v>1.6</v>
       </c>
       <c r="S15">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T15">
         <v>1.8</v>
       </c>
       <c r="U15">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
         <v>2</v>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_4.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\old_grnmap\GRNmap\GRNmap-7d\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -24,12 +24,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>CIN5</t>
   </si>
@@ -892,7 +892,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -944,40 +944,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -985,40 +985,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1026,40 +1026,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="10">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="D4" s="11">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1067,40 +1067,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -1196,40 +1196,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1237,40 +1237,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1319,40 +1319,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22">
-        <v>0.48</v>
+        <v>0.48047539785436383</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <v>0.247</v>
+        <v>0.24698695208080076</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>0.69499999999999995</v>
+        <v>0.69471696172208153</v>
       </c>
       <c r="E4" s="22">
-        <v>0.63</v>
+        <v>0.62986593530329382</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>-0.97499999999999998</v>
+        <v>-0.975015484931673</v>
       </c>
       <c r="E5" s="22">
-        <v>0.95399999999999996</v>
+        <v>0.95357730547457265</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1819,7 @@
         <v>0.2</v>
       </c>
       <c r="E15">
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F15">
         <v>0.4</v>
@@ -1828,10 +1828,10 @@
         <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I15">
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J15">
         <v>0.8</v>
@@ -1846,13 +1846,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N15">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O15">
         <v>1.3</v>
       </c>
       <c r="P15">
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="Q15">
         <v>1.5</v>
@@ -1861,13 +1861,13 @@
         <v>1.6</v>
       </c>
       <c r="S15">
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="T15">
         <v>1.8</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="V15">
         <v>2</v>
@@ -1885,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
